--- a/data/poas/poas16.xlsx
+++ b/data/poas/poas16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaime/Desktop/poas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C073828-043C-5A4A-9420-30DB5CF16A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3311670C-198A-844B-A67F-B0FE4894557F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,9 +299,6 @@
     <t>FAILED ARMY STANDARD 60/180 (HB)</t>
   </si>
   <si>
-    <t>SELECT</t>
-  </si>
-  <si>
     <t>VW</t>
   </si>
   <si>
@@ -309,12 +306,6 @@
   </si>
   <si>
     <t>FAILED ARSOF STANDARD 60/240 (HZ)</t>
-  </si>
-  <si>
-    <t>BOARD SELECT</t>
-  </si>
-  <si>
-    <t>BOARD NON-SELECT</t>
   </si>
   <si>
     <t>SEL</t>
@@ -366,9 +357,6 @@
   </si>
   <si>
     <t>94E</t>
-  </si>
-  <si>
-    <t>NON-SELECT</t>
   </si>
   <si>
     <t>91A</t>
@@ -548,9 +536,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>BOARD NON SELECT</t>
-  </si>
-  <si>
     <t>91S</t>
   </si>
   <si>
@@ -591,6 +576,21 @@
   </si>
   <si>
     <t>14S</t>
+  </si>
+  <si>
+    <t>SELECTED</t>
+  </si>
+  <si>
+    <t>BOARD SELECTED</t>
+  </si>
+  <si>
+    <t>BOARD NON-SELECTED</t>
+  </si>
+  <si>
+    <t>NON-SELECTED</t>
+  </si>
+  <si>
+    <t>BOARD NON SELECTED</t>
   </si>
 </sst>
 </file>
@@ -1621,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U544"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
@@ -1908,7 +1908,7 @@
         <v>86</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1970,10 +1970,10 @@
         <v>25</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2100,10 +2100,10 @@
         <v>25</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2165,10 +2165,10 @@
         <v>23</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2230,10 +2230,10 @@
         <v>25</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2295,10 +2295,10 @@
         <v>25</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2360,10 +2360,10 @@
         <v>23</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2425,10 +2425,10 @@
         <v>25</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2490,10 +2490,10 @@
         <v>25</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2555,10 +2555,10 @@
         <v>25</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2620,10 +2620,10 @@
         <v>23</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2685,10 +2685,10 @@
         <v>25</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2750,10 +2750,10 @@
         <v>25</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2815,10 +2815,10 @@
         <v>23</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2880,10 +2880,10 @@
         <v>25</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3010,10 +3010,10 @@
         <v>25</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3075,10 +3075,10 @@
         <v>23</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3205,10 +3205,10 @@
         <v>25</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U24" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3270,10 +3270,10 @@
         <v>23</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U25" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3335,10 +3335,10 @@
         <v>25</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3400,10 +3400,10 @@
         <v>25</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U27" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3530,10 +3530,10 @@
         <v>23</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3595,10 +3595,10 @@
         <v>23</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3725,10 +3725,10 @@
         <v>23</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3920,10 +3920,10 @@
         <v>23</v>
       </c>
       <c r="T35" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U35" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3985,10 +3985,10 @@
         <v>23</v>
       </c>
       <c r="T36" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U36" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4050,10 +4050,10 @@
         <v>25</v>
       </c>
       <c r="T37" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U37" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4115,10 +4115,10 @@
         <v>25</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U38" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4440,10 +4440,10 @@
         <v>23</v>
       </c>
       <c r="T43" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4505,10 +4505,10 @@
         <v>23</v>
       </c>
       <c r="T44" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U44" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4570,10 +4570,10 @@
         <v>25</v>
       </c>
       <c r="T45" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U45" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4635,10 +4635,10 @@
         <v>23</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4700,10 +4700,10 @@
         <v>25</v>
       </c>
       <c r="T47" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4765,10 +4765,10 @@
         <v>25</v>
       </c>
       <c r="T48" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4830,10 +4830,10 @@
         <v>23</v>
       </c>
       <c r="T49" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4895,10 +4895,10 @@
         <v>25</v>
       </c>
       <c r="T50" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5025,10 +5025,10 @@
         <v>25</v>
       </c>
       <c r="T52" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5090,10 +5090,10 @@
         <v>23</v>
       </c>
       <c r="T53" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U53" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5220,10 +5220,10 @@
         <v>25</v>
       </c>
       <c r="T55" s="3" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="U55" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5350,10 +5350,10 @@
         <v>23</v>
       </c>
       <c r="T57" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U57" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5480,7 +5480,7 @@
         <v>25</v>
       </c>
       <c r="T59" s="3" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>85</v>
@@ -5545,10 +5545,10 @@
         <v>25</v>
       </c>
       <c r="T60" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5610,10 +5610,10 @@
         <v>23</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U61" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5675,10 +5675,10 @@
         <v>25</v>
       </c>
       <c r="T62" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U62" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5740,10 +5740,10 @@
         <v>25</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U63" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5805,10 +5805,10 @@
         <v>23</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U64" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5935,10 +5935,10 @@
         <v>25</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U66" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6000,10 +6000,10 @@
         <v>23</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U67" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6079,7 +6079,7 @@
         <v>42</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>23</v>
@@ -6130,10 +6130,10 @@
         <v>23</v>
       </c>
       <c r="T69" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U69" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6195,10 +6195,10 @@
         <v>25</v>
       </c>
       <c r="T70" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U70" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6260,10 +6260,10 @@
         <v>25</v>
       </c>
       <c r="T71" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U71" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6325,10 +6325,10 @@
         <v>23</v>
       </c>
       <c r="T72" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U72" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6390,7 +6390,7 @@
         <v>23</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U73" s="24" t="s">
         <v>85</v>
@@ -6404,7 +6404,7 @@
         <v>42</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>23</v>
@@ -6455,10 +6455,10 @@
         <v>25</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U74" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6469,7 +6469,7 @@
         <v>42</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>23</v>
@@ -6520,7 +6520,7 @@
         <v>25</v>
       </c>
       <c r="T75" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U75" s="24" t="s">
         <v>85</v>
@@ -6585,10 +6585,10 @@
         <v>25</v>
       </c>
       <c r="T76" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U76" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6650,10 +6650,10 @@
         <v>23</v>
       </c>
       <c r="T77" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U77" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6715,10 +6715,10 @@
         <v>23</v>
       </c>
       <c r="T78" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U78" s="24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6780,10 +6780,10 @@
         <v>25</v>
       </c>
       <c r="T79" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U79" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -6845,7 +6845,7 @@
         <v>25</v>
       </c>
       <c r="T80" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U80" s="24" t="s">
         <v>85</v>
@@ -6859,7 +6859,7 @@
         <v>42</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>23</v>
@@ -6910,7 +6910,7 @@
         <v>25</v>
       </c>
       <c r="T81" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U81" s="24" t="s">
         <v>85</v>
@@ -6924,7 +6924,7 @@
         <v>42</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>23</v>
@@ -6975,10 +6975,10 @@
         <v>23</v>
       </c>
       <c r="T82" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U82" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7040,7 +7040,7 @@
         <v>25</v>
       </c>
       <c r="T83" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U83" s="24" t="s">
         <v>85</v>
@@ -7054,7 +7054,7 @@
         <v>42</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>23</v>
@@ -7105,10 +7105,10 @@
         <v>25</v>
       </c>
       <c r="T84" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U84" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7170,10 +7170,10 @@
         <v>23</v>
       </c>
       <c r="T85" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U85" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7235,10 +7235,10 @@
         <v>25</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U86" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7249,7 +7249,7 @@
         <v>42</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>25</v>
@@ -7300,10 +7300,10 @@
         <v>25</v>
       </c>
       <c r="T87" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U87" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7365,7 +7365,7 @@
         <v>23</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U88" s="24" t="s">
         <v>85</v>
@@ -7430,10 +7430,10 @@
         <v>25</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U89" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7444,7 +7444,7 @@
         <v>42</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>23</v>
@@ -7495,10 +7495,10 @@
         <v>23</v>
       </c>
       <c r="T90" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U90" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7560,10 +7560,10 @@
         <v>25</v>
       </c>
       <c r="T91" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U91" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7625,10 +7625,10 @@
         <v>25</v>
       </c>
       <c r="T92" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U92" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7690,10 +7690,10 @@
         <v>25</v>
       </c>
       <c r="T93" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U93" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -7704,7 +7704,7 @@
         <v>43</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>23</v>
@@ -7755,7 +7755,7 @@
         <v>23</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U94" s="24" t="s">
         <v>85</v>
@@ -7820,7 +7820,7 @@
         <v>25</v>
       </c>
       <c r="T95" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U95" s="24" t="s">
         <v>85</v>
@@ -7834,7 +7834,7 @@
         <v>24</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>23</v>
@@ -7885,7 +7885,7 @@
         <v>25</v>
       </c>
       <c r="T96" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U96" s="24" t="s">
         <v>85</v>
@@ -7950,7 +7950,7 @@
         <v>23</v>
       </c>
       <c r="T97" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U97" s="24" t="s">
         <v>85</v>
@@ -8015,10 +8015,10 @@
         <v>25</v>
       </c>
       <c r="T98" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U98" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8080,10 +8080,10 @@
         <v>23</v>
       </c>
       <c r="T99" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U99" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8145,7 +8145,7 @@
         <v>23</v>
       </c>
       <c r="T100" s="3" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="U100" s="1" t="s">
         <v>85</v>
@@ -8210,10 +8210,10 @@
         <v>25</v>
       </c>
       <c r="T101" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U101" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8275,10 +8275,10 @@
         <v>25</v>
       </c>
       <c r="T102" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U102" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8340,10 +8340,10 @@
         <v>25</v>
       </c>
       <c r="T103" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U103" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8354,7 +8354,7 @@
         <v>24</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>23</v>
@@ -8405,10 +8405,10 @@
         <v>23</v>
       </c>
       <c r="T104" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U104" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8470,10 +8470,10 @@
         <v>25</v>
       </c>
       <c r="T105" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U105" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="106" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8484,7 +8484,7 @@
         <v>42</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>23</v>
@@ -8535,10 +8535,10 @@
         <v>25</v>
       </c>
       <c r="T106" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U106" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8600,7 +8600,7 @@
         <v>23</v>
       </c>
       <c r="T107" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U107" s="24" t="s">
         <v>85</v>
@@ -8665,10 +8665,10 @@
         <v>25</v>
       </c>
       <c r="T108" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U108" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="109" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8679,7 +8679,7 @@
         <v>42</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>25</v>
@@ -8730,10 +8730,10 @@
         <v>25</v>
       </c>
       <c r="T109" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U109" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8795,7 +8795,7 @@
         <v>23</v>
       </c>
       <c r="T110" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U110" s="24" t="s">
         <v>85</v>
@@ -8860,10 +8860,10 @@
         <v>25</v>
       </c>
       <c r="T111" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U111" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8874,7 +8874,7 @@
         <v>42</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>23</v>
@@ -8925,10 +8925,10 @@
         <v>25</v>
       </c>
       <c r="T112" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U112" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -8939,7 +8939,7 @@
         <v>24</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>23</v>
@@ -8990,10 +8990,10 @@
         <v>25</v>
       </c>
       <c r="T113" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U113" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="114" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9055,10 +9055,10 @@
         <v>23</v>
       </c>
       <c r="T114" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U114" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9120,10 +9120,10 @@
         <v>25</v>
       </c>
       <c r="T115" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U115" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9134,7 +9134,7 @@
         <v>42</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>25</v>
@@ -9185,10 +9185,10 @@
         <v>23</v>
       </c>
       <c r="T116" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U116" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9250,10 +9250,10 @@
         <v>25</v>
       </c>
       <c r="T117" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U117" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9264,7 +9264,7 @@
         <v>43</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>23</v>
@@ -9315,10 +9315,10 @@
         <v>23</v>
       </c>
       <c r="T118" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U118" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9380,10 +9380,10 @@
         <v>25</v>
       </c>
       <c r="T119" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U119" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9394,7 +9394,7 @@
         <v>42</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>23</v>
@@ -9445,10 +9445,10 @@
         <v>25</v>
       </c>
       <c r="T120" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U120" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9510,10 +9510,10 @@
         <v>25</v>
       </c>
       <c r="T121" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U121" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9575,10 +9575,10 @@
         <v>25</v>
       </c>
       <c r="T122" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U122" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9640,10 +9640,10 @@
         <v>25</v>
       </c>
       <c r="T123" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U123" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9654,7 +9654,7 @@
         <v>42</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>25</v>
@@ -9705,7 +9705,7 @@
         <v>25</v>
       </c>
       <c r="T124" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U124" s="24" t="s">
         <v>85</v>
@@ -9719,7 +9719,7 @@
         <v>42</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>25</v>
@@ -9770,10 +9770,10 @@
         <v>25</v>
       </c>
       <c r="T125" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U125" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9811,7 +9811,7 @@
         <v>40</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M126" s="5">
         <v>114</v>
@@ -9835,10 +9835,10 @@
         <v>25</v>
       </c>
       <c r="T126" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U126" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="127" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9900,10 +9900,10 @@
         <v>25</v>
       </c>
       <c r="T127" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U127" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -9965,10 +9965,10 @@
         <v>25</v>
       </c>
       <c r="T128" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U128" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10030,10 +10030,10 @@
         <v>23</v>
       </c>
       <c r="T129" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U129" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10095,7 +10095,7 @@
         <v>25</v>
       </c>
       <c r="T130" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U130" s="24" t="s">
         <v>85</v>
@@ -10160,10 +10160,10 @@
         <v>25</v>
       </c>
       <c r="T131" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U131" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="132" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10225,10 +10225,10 @@
         <v>25</v>
       </c>
       <c r="T132" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U132" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10290,7 +10290,7 @@
         <v>25</v>
       </c>
       <c r="T133" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U133" s="24" t="s">
         <v>85</v>
@@ -10355,10 +10355,10 @@
         <v>25</v>
       </c>
       <c r="T134" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U134" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10369,7 +10369,7 @@
         <v>44</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>23</v>
@@ -10420,7 +10420,7 @@
         <v>25</v>
       </c>
       <c r="T135" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U135" s="24" t="s">
         <v>85</v>
@@ -10485,10 +10485,10 @@
         <v>25</v>
       </c>
       <c r="T136" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U136" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10499,7 +10499,7 @@
         <v>43</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>23</v>
@@ -10550,10 +10550,10 @@
         <v>25</v>
       </c>
       <c r="T137" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U137" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10615,10 +10615,10 @@
         <v>25</v>
       </c>
       <c r="T138" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U138" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10680,10 +10680,10 @@
         <v>25</v>
       </c>
       <c r="T139" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U139" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="140" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10745,7 +10745,7 @@
         <v>25</v>
       </c>
       <c r="T140" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U140" s="24" t="s">
         <v>85</v>
@@ -10759,7 +10759,7 @@
         <v>42</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>25</v>
@@ -10810,7 +10810,7 @@
         <v>25</v>
       </c>
       <c r="T141" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U141" s="24" t="s">
         <v>85</v>
@@ -10875,10 +10875,10 @@
         <v>25</v>
       </c>
       <c r="T142" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U142" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="143" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -10889,7 +10889,7 @@
         <v>42</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>23</v>
@@ -10940,10 +10940,10 @@
         <v>23</v>
       </c>
       <c r="T143" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U143" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11005,10 +11005,10 @@
         <v>25</v>
       </c>
       <c r="T144" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U144" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11070,7 +11070,7 @@
         <v>23</v>
       </c>
       <c r="T145" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U145" s="24" t="s">
         <v>85</v>
@@ -11084,7 +11084,7 @@
         <v>44</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>23</v>
@@ -11135,10 +11135,10 @@
         <v>25</v>
       </c>
       <c r="T146" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U146" s="24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11200,10 +11200,10 @@
         <v>23</v>
       </c>
       <c r="T147" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U147" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11265,10 +11265,10 @@
         <v>25</v>
       </c>
       <c r="T148" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U148" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11279,7 +11279,7 @@
         <v>42</v>
       </c>
       <c r="C149" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D149" s="7" t="s">
         <v>23</v>
@@ -11330,10 +11330,10 @@
         <v>25</v>
       </c>
       <c r="T149" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U149" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11395,10 +11395,10 @@
         <v>25</v>
       </c>
       <c r="T150" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U150" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="151" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11460,10 +11460,10 @@
         <v>25</v>
       </c>
       <c r="T151" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U151" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11525,10 +11525,10 @@
         <v>23</v>
       </c>
       <c r="T152" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U152" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="153" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11590,10 +11590,10 @@
         <v>23</v>
       </c>
       <c r="T153" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U153" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11655,10 +11655,10 @@
         <v>25</v>
       </c>
       <c r="T154" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U154" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11669,7 +11669,7 @@
         <v>42</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D155" s="7" t="s">
         <v>23</v>
@@ -11720,10 +11720,10 @@
         <v>25</v>
       </c>
       <c r="T155" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U155" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="156" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11785,10 +11785,10 @@
         <v>25</v>
       </c>
       <c r="T156" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U156" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11850,10 +11850,10 @@
         <v>23</v>
       </c>
       <c r="T157" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U157" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="158" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11915,10 +11915,10 @@
         <v>25</v>
       </c>
       <c r="T158" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U158" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -11929,7 +11929,7 @@
         <v>44</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D159" s="7" t="s">
         <v>23</v>
@@ -11980,7 +11980,7 @@
         <v>25</v>
       </c>
       <c r="T159" s="9" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="U159" s="10" t="s">
         <v>85</v>
@@ -11994,7 +11994,7 @@
         <v>43</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D160" s="7" t="s">
         <v>23</v>
@@ -12045,10 +12045,10 @@
         <v>25</v>
       </c>
       <c r="T160" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U160" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12059,7 +12059,7 @@
         <v>42</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>25</v>
@@ -12110,10 +12110,10 @@
         <v>25</v>
       </c>
       <c r="T161" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U161" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="162" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12175,7 +12175,7 @@
         <v>25</v>
       </c>
       <c r="T162" s="9" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="U162" s="10" t="s">
         <v>85</v>
@@ -12240,10 +12240,10 @@
         <v>23</v>
       </c>
       <c r="T163" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U163" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12305,10 +12305,10 @@
         <v>25</v>
       </c>
       <c r="T164" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U164" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12370,7 +12370,7 @@
         <v>23</v>
       </c>
       <c r="T165" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U165" s="8" t="s">
         <v>85</v>
@@ -12384,7 +12384,7 @@
         <v>24</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D166" s="7" t="s">
         <v>23</v>
@@ -12435,10 +12435,10 @@
         <v>25</v>
       </c>
       <c r="T166" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U166" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12449,7 +12449,7 @@
         <v>42</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D167" s="7" t="s">
         <v>25</v>
@@ -12500,7 +12500,7 @@
         <v>25</v>
       </c>
       <c r="T167" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U167" s="8" t="s">
         <v>85</v>
@@ -12565,10 +12565,10 @@
         <v>23</v>
       </c>
       <c r="T168" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U168" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12579,7 +12579,7 @@
         <v>42</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D169" s="7" t="s">
         <v>25</v>
@@ -12630,7 +12630,7 @@
         <v>25</v>
       </c>
       <c r="T169" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U169" s="8" t="s">
         <v>85</v>
@@ -12695,10 +12695,10 @@
         <v>23</v>
       </c>
       <c r="T170" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U170" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12760,10 +12760,10 @@
         <v>23</v>
       </c>
       <c r="T171" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U171" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12825,10 +12825,10 @@
         <v>25</v>
       </c>
       <c r="T172" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U172" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="173" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12839,7 +12839,7 @@
         <v>42</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D173" s="7" t="s">
         <v>23</v>
@@ -12890,7 +12890,7 @@
         <v>25</v>
       </c>
       <c r="T173" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U173" s="8" t="s">
         <v>85</v>
@@ -12904,7 +12904,7 @@
         <v>42</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D174" s="7" t="s">
         <v>23</v>
@@ -12955,10 +12955,10 @@
         <v>25</v>
       </c>
       <c r="T174" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U174" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -12969,7 +12969,7 @@
         <v>42</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D175" s="7" t="s">
         <v>23</v>
@@ -13020,10 +13020,10 @@
         <v>23</v>
       </c>
       <c r="T175" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U175" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="176" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13085,10 +13085,10 @@
         <v>25</v>
       </c>
       <c r="T176" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U176" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="177" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13126,7 +13126,7 @@
         <v>31</v>
       </c>
       <c r="L177" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M177" s="7">
         <v>123</v>
@@ -13150,7 +13150,7 @@
         <v>23</v>
       </c>
       <c r="T177" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U177" s="8" t="s">
         <v>85</v>
@@ -13164,7 +13164,7 @@
         <v>24</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D178" s="7" t="s">
         <v>23</v>
@@ -13215,10 +13215,10 @@
         <v>25</v>
       </c>
       <c r="T178" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U178" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="179" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13280,10 +13280,10 @@
         <v>25</v>
       </c>
       <c r="T179" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U179" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="180" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13294,7 +13294,7 @@
         <v>42</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D180" s="7" t="s">
         <v>23</v>
@@ -13345,10 +13345,10 @@
         <v>23</v>
       </c>
       <c r="T180" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U180" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="181" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13359,7 +13359,7 @@
         <v>42</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D181" s="7" t="s">
         <v>25</v>
@@ -13410,10 +13410,10 @@
         <v>23</v>
       </c>
       <c r="T181" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U181" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="182" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13424,7 +13424,7 @@
         <v>42</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>23</v>
@@ -13475,7 +13475,7 @@
         <v>25</v>
       </c>
       <c r="T182" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U182" s="8" t="s">
         <v>85</v>
@@ -13540,10 +13540,10 @@
         <v>23</v>
       </c>
       <c r="T183" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U183" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="184" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13605,7 +13605,7 @@
         <v>25</v>
       </c>
       <c r="T184" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U184" s="8" t="s">
         <v>85</v>
@@ -13619,7 +13619,7 @@
         <v>42</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D185" s="7" t="s">
         <v>25</v>
@@ -13670,10 +13670,10 @@
         <v>25</v>
       </c>
       <c r="T185" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U185" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="186" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13684,7 +13684,7 @@
         <v>42</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D186" s="7" t="s">
         <v>23</v>
@@ -13735,10 +13735,10 @@
         <v>25</v>
       </c>
       <c r="T186" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U186" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="187" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13800,10 +13800,10 @@
         <v>25</v>
       </c>
       <c r="T187" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U187" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="188" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13865,10 +13865,10 @@
         <v>23</v>
       </c>
       <c r="T188" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U188" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13930,10 +13930,10 @@
         <v>25</v>
       </c>
       <c r="T189" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U189" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="190" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -13944,7 +13944,7 @@
         <v>42</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>25</v>
@@ -13995,7 +13995,7 @@
         <v>23</v>
       </c>
       <c r="T190" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U190" s="8" t="s">
         <v>85</v>
@@ -14060,10 +14060,10 @@
         <v>25</v>
       </c>
       <c r="T191" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U191" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14125,10 +14125,10 @@
         <v>25</v>
       </c>
       <c r="T192" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U192" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="193" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14190,10 +14190,10 @@
         <v>25</v>
       </c>
       <c r="T193" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U193" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="194" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14204,7 +14204,7 @@
         <v>43</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>23</v>
@@ -14255,10 +14255,10 @@
         <v>23</v>
       </c>
       <c r="T194" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U194" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="195" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14269,7 +14269,7 @@
         <v>42</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D195" s="7" t="s">
         <v>23</v>
@@ -14320,7 +14320,7 @@
         <v>25</v>
       </c>
       <c r="T195" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U195" s="8" t="s">
         <v>85</v>
@@ -14385,10 +14385,10 @@
         <v>25</v>
       </c>
       <c r="T196" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U196" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="197" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14450,7 +14450,7 @@
         <v>25</v>
       </c>
       <c r="T197" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U197" s="8" t="s">
         <v>85</v>
@@ -14515,10 +14515,10 @@
         <v>25</v>
       </c>
       <c r="T198" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U198" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="199" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14529,7 +14529,7 @@
         <v>24</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>23</v>
@@ -14580,10 +14580,10 @@
         <v>25</v>
       </c>
       <c r="T199" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U199" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="200" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14645,10 +14645,10 @@
         <v>25</v>
       </c>
       <c r="T200" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U200" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="201" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14710,10 +14710,10 @@
         <v>25</v>
       </c>
       <c r="T201" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U201" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="202" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14775,10 +14775,10 @@
         <v>23</v>
       </c>
       <c r="T202" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U202" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="203" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14840,10 +14840,10 @@
         <v>23</v>
       </c>
       <c r="T203" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U203" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="204" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14881,7 +14881,7 @@
         <v>27</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M204" s="1">
         <v>116</v>
@@ -14905,10 +14905,10 @@
         <v>25</v>
       </c>
       <c r="T204" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U204" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="205" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -14970,7 +14970,7 @@
         <v>25</v>
       </c>
       <c r="T205" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U205" s="16" t="s">
         <v>85</v>
@@ -14984,7 +14984,7 @@
         <v>42</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>23</v>
@@ -15035,10 +15035,10 @@
         <v>25</v>
       </c>
       <c r="T206" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U206" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="207" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15100,10 +15100,10 @@
         <v>25</v>
       </c>
       <c r="T207" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U207" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="208" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15165,10 +15165,10 @@
         <v>25</v>
       </c>
       <c r="T208" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U208" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="209" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15230,10 +15230,10 @@
         <v>23</v>
       </c>
       <c r="T209" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U209" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="210" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15244,7 +15244,7 @@
         <v>42</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>23</v>
@@ -15295,10 +15295,10 @@
         <v>25</v>
       </c>
       <c r="T210" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U210" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="211" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15360,10 +15360,10 @@
         <v>23</v>
       </c>
       <c r="T211" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U211" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="212" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15425,10 +15425,10 @@
         <v>23</v>
       </c>
       <c r="T212" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U212" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="213" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15490,10 +15490,10 @@
         <v>25</v>
       </c>
       <c r="T213" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U213" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="214" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15555,10 +15555,10 @@
         <v>25</v>
       </c>
       <c r="T214" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U214" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="215" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15569,7 +15569,7 @@
         <v>24</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>23</v>
@@ -15620,7 +15620,7 @@
         <v>25</v>
       </c>
       <c r="T215" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U215" s="16" t="s">
         <v>85</v>
@@ -15634,7 +15634,7 @@
         <v>42</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>23</v>
@@ -15685,10 +15685,10 @@
         <v>25</v>
       </c>
       <c r="T216" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U216" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="217" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15699,7 +15699,7 @@
         <v>24</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>23</v>
@@ -15750,10 +15750,10 @@
         <v>23</v>
       </c>
       <c r="T217" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U217" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="218" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15815,10 +15815,10 @@
         <v>23</v>
       </c>
       <c r="T218" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U218" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="219" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15880,10 +15880,10 @@
         <v>23</v>
       </c>
       <c r="T219" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U219" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="220" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -15894,7 +15894,7 @@
         <v>24</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>23</v>
@@ -15945,7 +15945,7 @@
         <v>25</v>
       </c>
       <c r="T220" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U220" s="8" t="s">
         <v>85</v>
@@ -16010,10 +16010,10 @@
         <v>25</v>
       </c>
       <c r="T221" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U221" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="222" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16075,10 +16075,10 @@
         <v>25</v>
       </c>
       <c r="T222" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U222" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="223" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16089,7 +16089,7 @@
         <v>42</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>23</v>
@@ -16140,7 +16140,7 @@
         <v>25</v>
       </c>
       <c r="T223" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U223" s="16" t="s">
         <v>85</v>
@@ -16205,10 +16205,10 @@
         <v>23</v>
       </c>
       <c r="T224" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U224" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="225" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16270,10 +16270,10 @@
         <v>23</v>
       </c>
       <c r="T225" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U225" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="226" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16311,7 +16311,7 @@
         <v>45</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M226" s="1">
         <v>125</v>
@@ -16335,7 +16335,7 @@
         <v>23</v>
       </c>
       <c r="T226" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U226" s="16" t="s">
         <v>85</v>
@@ -16400,10 +16400,10 @@
         <v>23</v>
       </c>
       <c r="T227" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U227" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="228" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16414,7 +16414,7 @@
         <v>42</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>23</v>
@@ -16465,10 +16465,10 @@
         <v>25</v>
       </c>
       <c r="T228" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U228" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="229" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16530,10 +16530,10 @@
         <v>25</v>
       </c>
       <c r="T229" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U229" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="230" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16544,7 +16544,7 @@
         <v>42</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>23</v>
@@ -16595,10 +16595,10 @@
         <v>25</v>
       </c>
       <c r="T230" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U230" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="231" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16660,7 +16660,7 @@
         <v>25</v>
       </c>
       <c r="T231" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U231" s="16" t="s">
         <v>85</v>
@@ -16674,7 +16674,7 @@
         <v>42</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>23</v>
@@ -16701,7 +16701,7 @@
         <v>40</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M232" s="1">
         <v>135</v>
@@ -16725,10 +16725,10 @@
         <v>23</v>
       </c>
       <c r="T232" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U232" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="233" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16739,7 +16739,7 @@
         <v>44</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>23</v>
@@ -16790,7 +16790,7 @@
         <v>25</v>
       </c>
       <c r="T233" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U233" s="16" t="s">
         <v>85</v>
@@ -16855,10 +16855,10 @@
         <v>25</v>
       </c>
       <c r="T234" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U234" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="235" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -16869,7 +16869,7 @@
         <v>42</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>23</v>
@@ -16920,7 +16920,7 @@
         <v>23</v>
       </c>
       <c r="T235" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U235" s="16" t="s">
         <v>85</v>
@@ -16985,7 +16985,7 @@
         <v>25</v>
       </c>
       <c r="T236" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U236" s="16" t="s">
         <v>85</v>
@@ -16999,7 +16999,7 @@
         <v>42</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>23</v>
@@ -17050,10 +17050,10 @@
         <v>25</v>
       </c>
       <c r="T237" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U237" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="238" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17064,7 +17064,7 @@
         <v>42</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>23</v>
@@ -17115,10 +17115,10 @@
         <v>25</v>
       </c>
       <c r="T238" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U238" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="239" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17180,10 +17180,10 @@
         <v>25</v>
       </c>
       <c r="T239" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U239" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="240" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17194,7 +17194,7 @@
         <v>43</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>23</v>
@@ -17221,7 +17221,7 @@
         <v>33</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M240" s="1">
         <v>121</v>
@@ -17245,7 +17245,7 @@
         <v>25</v>
       </c>
       <c r="T240" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U240" s="16" t="s">
         <v>85</v>
@@ -17259,7 +17259,7 @@
         <v>42</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>23</v>
@@ -17310,10 +17310,10 @@
         <v>23</v>
       </c>
       <c r="T241" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U241" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="242" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17375,7 +17375,7 @@
         <v>25</v>
       </c>
       <c r="T242" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U242" s="16" t="s">
         <v>85</v>
@@ -17440,10 +17440,10 @@
         <v>23</v>
       </c>
       <c r="T243" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U243" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="244" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17505,10 +17505,10 @@
         <v>23</v>
       </c>
       <c r="T244" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U244" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="245" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17546,7 +17546,7 @@
         <v>26</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M245" s="1">
         <v>114</v>
@@ -17570,10 +17570,10 @@
         <v>25</v>
       </c>
       <c r="T245" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U245" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="246" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17584,7 +17584,7 @@
         <v>42</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>23</v>
@@ -17635,10 +17635,10 @@
         <v>25</v>
       </c>
       <c r="T246" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U246" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="247" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17649,7 +17649,7 @@
         <v>42</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>23</v>
@@ -17700,10 +17700,10 @@
         <v>25</v>
       </c>
       <c r="T247" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U247" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="248" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17765,10 +17765,10 @@
         <v>25</v>
       </c>
       <c r="T248" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U248" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="249" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17830,10 +17830,10 @@
         <v>25</v>
       </c>
       <c r="T249" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U249" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="250" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17895,7 +17895,7 @@
         <v>25</v>
       </c>
       <c r="T250" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U250" s="16" t="s">
         <v>85</v>
@@ -17960,10 +17960,10 @@
         <v>25</v>
       </c>
       <c r="T251" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U251" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="252" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -17974,7 +17974,7 @@
         <v>42</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>23</v>
@@ -18025,10 +18025,10 @@
         <v>25</v>
       </c>
       <c r="T252" s="3" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U252" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="253" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18039,7 +18039,7 @@
         <v>43</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D253" s="7" t="s">
         <v>23</v>
@@ -18090,10 +18090,10 @@
         <v>25</v>
       </c>
       <c r="T253" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U253" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="254" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18155,10 +18155,10 @@
         <v>25</v>
       </c>
       <c r="T254" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U254" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="255" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18220,10 +18220,10 @@
         <v>23</v>
       </c>
       <c r="T255" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U255" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="256" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18285,10 +18285,10 @@
         <v>23</v>
       </c>
       <c r="T256" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U256" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="257" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18350,10 +18350,10 @@
         <v>25</v>
       </c>
       <c r="T257" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U257" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="258" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18415,10 +18415,10 @@
         <v>23</v>
       </c>
       <c r="T258" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U258" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18480,10 +18480,10 @@
         <v>25</v>
       </c>
       <c r="T259" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U259" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="260" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18545,10 +18545,10 @@
         <v>25</v>
       </c>
       <c r="T260" s="9" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="U260" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="261" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18610,7 +18610,7 @@
         <v>25</v>
       </c>
       <c r="T261" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U261" s="7" t="s">
         <v>85</v>
@@ -18624,7 +18624,7 @@
         <v>43</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D262" s="7" t="s">
         <v>23</v>
@@ -18675,10 +18675,10 @@
         <v>23</v>
       </c>
       <c r="T262" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U262" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="263" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18689,7 +18689,7 @@
         <v>42</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D263" s="7" t="s">
         <v>23</v>
@@ -18740,10 +18740,10 @@
         <v>23</v>
       </c>
       <c r="T263" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U263" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="264" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18805,7 +18805,7 @@
         <v>25</v>
       </c>
       <c r="T264" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U264" s="7" t="s">
         <v>85</v>
@@ -18870,10 +18870,10 @@
         <v>25</v>
       </c>
       <c r="T265" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U265" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="266" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -18935,10 +18935,10 @@
         <v>25</v>
       </c>
       <c r="T266" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U266" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="267" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19000,10 +19000,10 @@
         <v>25</v>
       </c>
       <c r="T267" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U267" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="268" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19065,7 +19065,7 @@
         <v>25</v>
       </c>
       <c r="T268" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U268" s="7" t="s">
         <v>85</v>
@@ -19079,7 +19079,7 @@
         <v>44</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D269" s="7" t="s">
         <v>23</v>
@@ -19130,10 +19130,10 @@
         <v>23</v>
       </c>
       <c r="T269" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U269" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="270" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19144,7 +19144,7 @@
         <v>42</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D270" s="7" t="s">
         <v>23</v>
@@ -19195,7 +19195,7 @@
         <v>25</v>
       </c>
       <c r="T270" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U270" s="7" t="s">
         <v>85</v>
@@ -19260,10 +19260,10 @@
         <v>25</v>
       </c>
       <c r="T271" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U271" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="272" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19325,7 +19325,7 @@
         <v>25</v>
       </c>
       <c r="T272" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U272" s="7" t="s">
         <v>85</v>
@@ -19339,7 +19339,7 @@
         <v>24</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D273" s="7" t="s">
         <v>23</v>
@@ -19390,7 +19390,7 @@
         <v>25</v>
       </c>
       <c r="T273" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U273" s="7" t="s">
         <v>85</v>
@@ -19455,10 +19455,10 @@
         <v>25</v>
       </c>
       <c r="T274" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U274" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="275" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19520,10 +19520,10 @@
         <v>23</v>
       </c>
       <c r="T275" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U275" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="276" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19585,10 +19585,10 @@
         <v>25</v>
       </c>
       <c r="T276" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U276" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="277" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19650,10 +19650,10 @@
         <v>25</v>
       </c>
       <c r="T277" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U277" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="278" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19715,10 +19715,10 @@
         <v>25</v>
       </c>
       <c r="T278" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U278" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="279" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19729,7 +19729,7 @@
         <v>42</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D279" s="7" t="s">
         <v>23</v>
@@ -19780,10 +19780,10 @@
         <v>25</v>
       </c>
       <c r="T279" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U279" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="280" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19845,10 +19845,10 @@
         <v>25</v>
       </c>
       <c r="T280" s="9" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="U280" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="281" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19910,10 +19910,10 @@
         <v>25</v>
       </c>
       <c r="T281" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U281" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -19975,10 +19975,10 @@
         <v>25</v>
       </c>
       <c r="T282" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U282" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="283" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20040,10 +20040,10 @@
         <v>25</v>
       </c>
       <c r="T283" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U283" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="284" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20105,7 +20105,7 @@
         <v>23</v>
       </c>
       <c r="T284" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U284" s="7" t="s">
         <v>85</v>
@@ -20170,10 +20170,10 @@
         <v>25</v>
       </c>
       <c r="T285" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U285" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20235,10 +20235,10 @@
         <v>25</v>
       </c>
       <c r="T286" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U286" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="287" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20300,7 +20300,7 @@
         <v>25</v>
       </c>
       <c r="T287" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U287" s="7" t="s">
         <v>85</v>
@@ -20365,10 +20365,10 @@
         <v>23</v>
       </c>
       <c r="T288" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U288" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="289" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20430,7 +20430,7 @@
         <v>25</v>
       </c>
       <c r="T289" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U289" s="7" t="s">
         <v>85</v>
@@ -20495,10 +20495,10 @@
         <v>25</v>
       </c>
       <c r="T290" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U290" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="291" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20509,7 +20509,7 @@
         <v>42</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D291" s="7" t="s">
         <v>23</v>
@@ -20560,10 +20560,10 @@
         <v>23</v>
       </c>
       <c r="T291" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U291" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="292" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20625,10 +20625,10 @@
         <v>23</v>
       </c>
       <c r="T292" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U292" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="293" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20639,7 +20639,7 @@
         <v>42</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D293" s="7" t="s">
         <v>23</v>
@@ -20690,10 +20690,10 @@
         <v>23</v>
       </c>
       <c r="T293" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U293" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="294" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20755,10 +20755,10 @@
         <v>25</v>
       </c>
       <c r="T294" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U294" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="295" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20769,7 +20769,7 @@
         <v>42</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D295" s="7" t="s">
         <v>23</v>
@@ -20820,10 +20820,10 @@
         <v>25</v>
       </c>
       <c r="T295" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U295" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="296" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20885,7 +20885,7 @@
         <v>25</v>
       </c>
       <c r="T296" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U296" s="7" t="s">
         <v>85</v>
@@ -20950,10 +20950,10 @@
         <v>25</v>
       </c>
       <c r="T297" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U297" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="298" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -20964,7 +20964,7 @@
         <v>42</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D298" s="7" t="s">
         <v>23</v>
@@ -21015,10 +21015,10 @@
         <v>23</v>
       </c>
       <c r="T298" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U298" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="299" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -21080,7 +21080,7 @@
         <v>25</v>
       </c>
       <c r="T299" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U299" s="7" t="s">
         <v>85</v>
@@ -21094,7 +21094,7 @@
         <v>24</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D300" s="7" t="s">
         <v>23</v>
@@ -21145,7 +21145,7 @@
         <v>23</v>
       </c>
       <c r="T300" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U300" s="7" t="s">
         <v>85</v>
@@ -21210,10 +21210,10 @@
         <v>25</v>
       </c>
       <c r="T301" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U301" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="302" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -21275,10 +21275,10 @@
         <v>25</v>
       </c>
       <c r="T302" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U302" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -21289,7 +21289,7 @@
         <v>42</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D303" s="7" t="s">
         <v>23</v>
@@ -21340,10 +21340,10 @@
         <v>25</v>
       </c>
       <c r="T303" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U303" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -21405,7 +21405,7 @@
         <v>25</v>
       </c>
       <c r="T304" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U304" s="7" t="s">
         <v>85</v>
@@ -21470,7 +21470,7 @@
         <v>23</v>
       </c>
       <c r="T305" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U305" s="7" t="s">
         <v>85</v>
@@ -21535,10 +21535,10 @@
         <v>25</v>
       </c>
       <c r="T306" s="9" t="s">
-        <v>110</v>
+        <v>183</v>
       </c>
       <c r="U306" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="307" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -21600,10 +21600,10 @@
         <v>25</v>
       </c>
       <c r="T307" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U307" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -21614,7 +21614,7 @@
         <v>42</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D308" s="7" t="s">
         <v>23</v>
@@ -21665,10 +21665,10 @@
         <v>23</v>
       </c>
       <c r="T308" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U308" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="309" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -21730,10 +21730,10 @@
         <v>25</v>
       </c>
       <c r="T309" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U309" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="310" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -21744,7 +21744,7 @@
         <v>43</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D310" s="7" t="s">
         <v>23</v>
@@ -21795,10 +21795,10 @@
         <v>25</v>
       </c>
       <c r="T310" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U310" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="311" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -21925,10 +21925,10 @@
         <v>25</v>
       </c>
       <c r="T312" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U312" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="313" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -21990,10 +21990,10 @@
         <v>25</v>
       </c>
       <c r="T313" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U313" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="314" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22120,10 +22120,10 @@
         <v>23</v>
       </c>
       <c r="T315" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U315" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22185,10 +22185,10 @@
         <v>23</v>
       </c>
       <c r="T316" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U316" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="317" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22199,7 +22199,7 @@
         <v>42</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D317" s="7" t="s">
         <v>23</v>
@@ -22250,10 +22250,10 @@
         <v>23</v>
       </c>
       <c r="T317" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U317" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="318" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22315,10 +22315,10 @@
         <v>25</v>
       </c>
       <c r="T318" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U318" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="319" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22380,10 +22380,10 @@
         <v>25</v>
       </c>
       <c r="T319" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U319" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="320" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22394,7 +22394,7 @@
         <v>42</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D320" s="7" t="s">
         <v>23</v>
@@ -22445,10 +22445,10 @@
         <v>23</v>
       </c>
       <c r="T320" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U320" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="321" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22459,7 +22459,7 @@
         <v>24</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D321" s="7" t="s">
         <v>23</v>
@@ -22486,7 +22486,7 @@
         <v>26</v>
       </c>
       <c r="L321" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M321" s="7">
         <v>116</v>
@@ -22510,10 +22510,10 @@
         <v>23</v>
       </c>
       <c r="T321" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U321" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="322" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22524,7 +22524,7 @@
         <v>24</v>
       </c>
       <c r="C322" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D322" s="7" t="s">
         <v>23</v>
@@ -22575,10 +22575,10 @@
         <v>23</v>
       </c>
       <c r="T322" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U322" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="323" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22589,7 +22589,7 @@
         <v>42</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D323" s="7" t="s">
         <v>23</v>
@@ -22640,10 +22640,10 @@
         <v>25</v>
       </c>
       <c r="T323" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U323" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22654,7 +22654,7 @@
         <v>44</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D324" s="7" t="s">
         <v>23</v>
@@ -22770,10 +22770,10 @@
         <v>25</v>
       </c>
       <c r="T325" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U325" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="326" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -22900,10 +22900,10 @@
         <v>23</v>
       </c>
       <c r="T327" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U327" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="328" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -23030,10 +23030,10 @@
         <v>25</v>
       </c>
       <c r="T329" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U329" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="330" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -23044,7 +23044,7 @@
         <v>42</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D330" s="7" t="s">
         <v>23</v>
@@ -23109,7 +23109,7 @@
         <v>44</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D331" s="7" t="s">
         <v>23</v>
@@ -23160,10 +23160,10 @@
         <v>23</v>
       </c>
       <c r="T331" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U331" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="332" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -23225,10 +23225,10 @@
         <v>25</v>
       </c>
       <c r="T332" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U332" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="333" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -23290,10 +23290,10 @@
         <v>23</v>
       </c>
       <c r="T333" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U333" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="334" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -23355,10 +23355,10 @@
         <v>25</v>
       </c>
       <c r="T334" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U334" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="335" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -23420,10 +23420,10 @@
         <v>25</v>
       </c>
       <c r="T335" s="9" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="U335" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="336" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -23499,7 +23499,7 @@
         <v>42</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D337" s="7" t="s">
         <v>23</v>
@@ -23550,10 +23550,10 @@
         <v>25</v>
       </c>
       <c r="T337" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U337" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="338" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -23680,10 +23680,10 @@
         <v>25</v>
       </c>
       <c r="T339" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U339" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="340" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -23824,7 +23824,7 @@
         <v>42</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D342" s="7" t="s">
         <v>23</v>
@@ -23875,10 +23875,10 @@
         <v>25</v>
       </c>
       <c r="T342" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U342" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="343" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -23940,10 +23940,10 @@
         <v>25</v>
       </c>
       <c r="T343" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U343" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="344" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -24005,10 +24005,10 @@
         <v>25</v>
       </c>
       <c r="T344" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U344" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="345" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -24019,7 +24019,7 @@
         <v>24</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D345" s="7" t="s">
         <v>23</v>
@@ -24135,10 +24135,10 @@
         <v>23</v>
       </c>
       <c r="T346" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U346" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="347" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -24200,10 +24200,10 @@
         <v>25</v>
       </c>
       <c r="T347" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U347" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="348" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -24265,10 +24265,10 @@
         <v>25</v>
       </c>
       <c r="T348" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U348" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="349" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -24279,7 +24279,7 @@
         <v>24</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D349" s="7" t="s">
         <v>25</v>
@@ -24460,10 +24460,10 @@
         <v>23</v>
       </c>
       <c r="T351" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U351" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="352" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -24474,7 +24474,7 @@
         <v>42</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D352" s="7" t="s">
         <v>23</v>
@@ -24566,7 +24566,7 @@
         <v>33</v>
       </c>
       <c r="L353" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M353" s="7">
         <v>113</v>
@@ -24590,10 +24590,10 @@
         <v>23</v>
       </c>
       <c r="T353" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U353" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="354" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -24655,10 +24655,10 @@
         <v>25</v>
       </c>
       <c r="T354" s="9" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="U354" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="355" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -24669,7 +24669,7 @@
         <v>42</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D355" s="7" t="s">
         <v>23</v>
@@ -24720,10 +24720,10 @@
         <v>23</v>
       </c>
       <c r="T355" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U355" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="356" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -24850,10 +24850,10 @@
         <v>23</v>
       </c>
       <c r="T357" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U357" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="358" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -24864,7 +24864,7 @@
         <v>42</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D358" s="7" t="s">
         <v>23</v>
@@ -24915,10 +24915,10 @@
         <v>25</v>
       </c>
       <c r="T358" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U358" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="359" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -24983,7 +24983,7 @@
         <v>85</v>
       </c>
       <c r="U359" s="10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="360" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25021,7 +25021,7 @@
         <v>34</v>
       </c>
       <c r="L360" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M360" s="7">
         <v>108</v>
@@ -25045,7 +25045,7 @@
         <v>25</v>
       </c>
       <c r="T360" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U360" s="8" t="s">
         <v>85</v>
@@ -25110,10 +25110,10 @@
         <v>23</v>
       </c>
       <c r="T361" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U361" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="362" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25189,7 +25189,7 @@
         <v>42</v>
       </c>
       <c r="C363" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D363" s="7" t="s">
         <v>23</v>
@@ -25240,10 +25240,10 @@
         <v>25</v>
       </c>
       <c r="T363" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U363" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="364" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25305,10 +25305,10 @@
         <v>23</v>
       </c>
       <c r="T364" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U364" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="365" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25319,7 +25319,7 @@
         <v>24</v>
       </c>
       <c r="C365" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D365" s="7" t="s">
         <v>23</v>
@@ -25435,10 +25435,10 @@
         <v>23</v>
       </c>
       <c r="T366" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U366" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="367" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25500,10 +25500,10 @@
         <v>23</v>
       </c>
       <c r="T367" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U367" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="368" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25565,10 +25565,10 @@
         <v>25</v>
       </c>
       <c r="T368" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U368" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="369" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25630,10 +25630,10 @@
         <v>25</v>
       </c>
       <c r="T369" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U369" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="370" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25760,10 +25760,10 @@
         <v>23</v>
       </c>
       <c r="T371" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U371" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="372" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25774,7 +25774,7 @@
         <v>44</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D372" s="7" t="s">
         <v>23</v>
@@ -25825,10 +25825,10 @@
         <v>25</v>
       </c>
       <c r="T372" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U372" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="373" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25890,10 +25890,10 @@
         <v>25</v>
       </c>
       <c r="T373" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U373" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="374" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -25955,10 +25955,10 @@
         <v>25</v>
       </c>
       <c r="T374" s="11" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="U374" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="375" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26034,7 +26034,7 @@
         <v>24</v>
       </c>
       <c r="C376" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D376" s="7" t="s">
         <v>25</v>
@@ -26150,10 +26150,10 @@
         <v>25</v>
       </c>
       <c r="T377" s="9" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U377" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="378" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26161,10 +26161,10 @@
         <v>30</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>23</v>
@@ -26191,7 +26191,7 @@
         <v>30</v>
       </c>
       <c r="L378" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M378" s="1">
         <v>125</v>
@@ -26215,10 +26215,10 @@
         <v>25</v>
       </c>
       <c r="T378" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U378" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="379" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26226,7 +26226,7 @@
         <v>26</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>59</v>
@@ -26280,10 +26280,10 @@
         <v>25</v>
       </c>
       <c r="T379" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U379" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="380" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26291,7 +26291,7 @@
         <v>19</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>55</v>
@@ -26345,10 +26345,10 @@
         <v>25</v>
       </c>
       <c r="T380" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U380" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="381" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26356,7 +26356,7 @@
         <v>39</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>55</v>
@@ -26410,10 +26410,10 @@
         <v>25</v>
       </c>
       <c r="T381" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U381" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="382" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26421,7 +26421,7 @@
         <v>19</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>55</v>
@@ -26475,10 +26475,10 @@
         <v>25</v>
       </c>
       <c r="T382" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U382" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="383" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26486,7 +26486,7 @@
         <v>30</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>48</v>
@@ -26516,7 +26516,7 @@
         <v>24</v>
       </c>
       <c r="L383" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M383" s="1">
         <v>119</v>
@@ -26540,10 +26540,10 @@
         <v>23</v>
       </c>
       <c r="T383" s="18" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="U383" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="384" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26551,10 +26551,10 @@
         <v>19</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>23</v>
@@ -26616,7 +26616,7 @@
         <v>19</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>55</v>
@@ -26681,7 +26681,7 @@
         <v>19</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>55</v>
@@ -26735,10 +26735,10 @@
         <v>25</v>
       </c>
       <c r="T386" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U386" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="387" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26746,7 +26746,7 @@
         <v>19</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C387" s="1" t="s">
         <v>20</v>
@@ -26800,10 +26800,10 @@
         <v>23</v>
       </c>
       <c r="T387" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U387" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="388" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26811,7 +26811,7 @@
         <v>19</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C388" s="1" t="s">
         <v>20</v>
@@ -26865,10 +26865,10 @@
         <v>23</v>
       </c>
       <c r="T388" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U388" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="389" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26876,7 +26876,7 @@
         <v>19</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C389" s="1" t="s">
         <v>55</v>
@@ -26930,10 +26930,10 @@
         <v>25</v>
       </c>
       <c r="T389" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U389" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="390" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -26941,10 +26941,10 @@
         <v>19</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>23</v>
@@ -26971,7 +26971,7 @@
         <v>24</v>
       </c>
       <c r="L390" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M390" s="1">
         <v>110</v>
@@ -27006,7 +27006,7 @@
         <v>39</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C391" s="1" t="s">
         <v>20</v>
@@ -27060,10 +27060,10 @@
         <v>23</v>
       </c>
       <c r="T391" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U391" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="392" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27071,10 +27071,10 @@
         <v>30</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>23</v>
@@ -27101,7 +27101,7 @@
         <v>26</v>
       </c>
       <c r="L392" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M392" s="1">
         <v>116</v>
@@ -27136,7 +27136,7 @@
         <v>30</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C393" s="1" t="s">
         <v>31</v>
@@ -27190,10 +27190,10 @@
         <v>25</v>
       </c>
       <c r="T393" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U393" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="394" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27201,7 +27201,7 @@
         <v>30</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C394" s="1" t="s">
         <v>47</v>
@@ -27255,10 +27255,10 @@
         <v>25</v>
       </c>
       <c r="T394" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U394" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="395" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27266,10 +27266,10 @@
         <v>30</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>23</v>
@@ -27320,10 +27320,10 @@
         <v>25</v>
       </c>
       <c r="T395" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U395" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="396" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27331,7 +27331,7 @@
         <v>26</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C396" s="1" t="s">
         <v>31</v>
@@ -27385,10 +27385,10 @@
         <v>25</v>
       </c>
       <c r="T396" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U396" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="397" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27396,10 +27396,10 @@
         <v>51</v>
       </c>
       <c r="B397" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>23</v>
@@ -27450,10 +27450,10 @@
         <v>25</v>
       </c>
       <c r="T397" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U397" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="398" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27461,7 +27461,7 @@
         <v>30</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C398" s="1" t="s">
         <v>49</v>
@@ -27515,10 +27515,10 @@
         <v>25</v>
       </c>
       <c r="T398" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U398" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="399" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27529,7 +27529,7 @@
         <v>32</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>25</v>
@@ -27580,10 +27580,10 @@
         <v>25</v>
       </c>
       <c r="T399" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U399" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="400" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27591,10 +27591,10 @@
         <v>39</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D400" s="1" t="s">
         <v>23</v>
@@ -27656,10 +27656,10 @@
         <v>19</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>23</v>
@@ -27710,10 +27710,10 @@
         <v>25</v>
       </c>
       <c r="T401" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U401" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="402" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27721,10 +27721,10 @@
         <v>19</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>23</v>
@@ -27775,10 +27775,10 @@
         <v>23</v>
       </c>
       <c r="T402" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U402" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="403" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27786,7 +27786,7 @@
         <v>30</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C403" s="1" t="s">
         <v>53</v>
@@ -27840,10 +27840,10 @@
         <v>25</v>
       </c>
       <c r="T403" s="18" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="U403" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="404" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27851,7 +27851,7 @@
         <v>19</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C404" s="1" t="s">
         <v>40</v>
@@ -27905,10 +27905,10 @@
         <v>25</v>
       </c>
       <c r="T404" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U404" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="405" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -27916,7 +27916,7 @@
         <v>19</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C405" s="1" t="s">
         <v>20</v>
@@ -27981,7 +27981,7 @@
         <v>19</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C406" s="1" t="s">
         <v>28</v>
@@ -28035,10 +28035,10 @@
         <v>23</v>
       </c>
       <c r="T406" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U406" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="407" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28046,7 +28046,7 @@
         <v>19</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C407" s="1" t="s">
         <v>55</v>
@@ -28100,10 +28100,10 @@
         <v>25</v>
       </c>
       <c r="T407" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U407" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="408" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28111,7 +28111,7 @@
         <v>19</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C408" s="1" t="s">
         <v>59</v>
@@ -28176,10 +28176,10 @@
         <v>19</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>23</v>
@@ -28244,7 +28244,7 @@
         <v>32</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>23</v>
@@ -28271,7 +28271,7 @@
         <v>30</v>
       </c>
       <c r="L410" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M410" s="1">
         <v>111</v>
@@ -28306,10 +28306,10 @@
         <v>19</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>23</v>
@@ -28360,10 +28360,10 @@
         <v>23</v>
       </c>
       <c r="T411" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U411" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="412" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28371,7 +28371,7 @@
         <v>30</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>20</v>
@@ -28425,10 +28425,10 @@
         <v>25</v>
       </c>
       <c r="T412" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U412" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="413" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28490,10 +28490,10 @@
         <v>23</v>
       </c>
       <c r="T413" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U413" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="414" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28501,7 +28501,7 @@
         <v>19</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>20</v>
@@ -28566,10 +28566,10 @@
         <v>19</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D415" s="1" t="s">
         <v>23</v>
@@ -28631,7 +28631,7 @@
         <v>30</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>53</v>
@@ -28685,10 +28685,10 @@
         <v>23</v>
       </c>
       <c r="T416" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U416" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="417" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28696,7 +28696,7 @@
         <v>39</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>20</v>
@@ -28761,7 +28761,7 @@
         <v>19</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>79</v>
@@ -28826,7 +28826,7 @@
         <v>19</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>28</v>
@@ -28880,10 +28880,10 @@
         <v>23</v>
       </c>
       <c r="T419" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U419" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="420" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28945,10 +28945,10 @@
         <v>25</v>
       </c>
       <c r="T420" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U420" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="421" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -28956,7 +28956,7 @@
         <v>39</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>31</v>
@@ -29010,10 +29010,10 @@
         <v>25</v>
       </c>
       <c r="T421" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U421" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="422" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29021,7 +29021,7 @@
         <v>30</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>59</v>
@@ -29075,10 +29075,10 @@
         <v>23</v>
       </c>
       <c r="T422" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U422" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="423" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29086,7 +29086,7 @@
         <v>30</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>20</v>
@@ -29140,10 +29140,10 @@
         <v>25</v>
       </c>
       <c r="T423" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U423" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="424" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29151,7 +29151,7 @@
         <v>19</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>55</v>
@@ -29205,10 +29205,10 @@
         <v>25</v>
       </c>
       <c r="T424" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U424" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="425" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29216,7 +29216,7 @@
         <v>19</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>20</v>
@@ -29270,10 +29270,10 @@
         <v>25</v>
       </c>
       <c r="T425" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U425" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="426" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29281,7 +29281,7 @@
         <v>19</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>70</v>
@@ -29335,10 +29335,10 @@
         <v>23</v>
       </c>
       <c r="T426" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U426" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="427" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29346,7 +29346,7 @@
         <v>19</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>55</v>
@@ -29400,10 +29400,10 @@
         <v>25</v>
       </c>
       <c r="T427" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U427" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="428" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29411,7 +29411,7 @@
         <v>30</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>20</v>
@@ -29465,10 +29465,10 @@
         <v>23</v>
       </c>
       <c r="T428" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U428" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="429" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29476,10 +29476,10 @@
         <v>19</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>23</v>
@@ -29530,10 +29530,10 @@
         <v>25</v>
       </c>
       <c r="T429" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U429" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="430" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29541,7 +29541,7 @@
         <v>19</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>20</v>
@@ -29595,10 +29595,10 @@
         <v>25</v>
       </c>
       <c r="T430" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U430" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="431" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29606,7 +29606,7 @@
         <v>26</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>20</v>
@@ -29660,10 +29660,10 @@
         <v>25</v>
       </c>
       <c r="T431" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U431" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="432" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29671,7 +29671,7 @@
         <v>19</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>20</v>
@@ -29725,10 +29725,10 @@
         <v>23</v>
       </c>
       <c r="T432" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U432" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="433" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29736,7 +29736,7 @@
         <v>26</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>20</v>
@@ -29790,10 +29790,10 @@
         <v>23</v>
       </c>
       <c r="T433" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U433" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="434" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29801,7 +29801,7 @@
         <v>30</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>35</v>
@@ -29855,10 +29855,10 @@
         <v>25</v>
       </c>
       <c r="T434" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U434" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="435" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29866,7 +29866,7 @@
         <v>19</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>48</v>
@@ -29920,10 +29920,10 @@
         <v>25</v>
       </c>
       <c r="T435" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U435" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="436" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -29931,7 +29931,7 @@
         <v>30</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>52</v>
@@ -29996,7 +29996,7 @@
         <v>19</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>20</v>
@@ -30050,10 +30050,10 @@
         <v>25</v>
       </c>
       <c r="T437" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U437" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="438" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30061,7 +30061,7 @@
         <v>30</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>57</v>
@@ -30091,7 +30091,7 @@
         <v>35</v>
       </c>
       <c r="L438" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M438" s="1">
         <v>110</v>
@@ -30126,7 +30126,7 @@
         <v>19</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>55</v>
@@ -30159,31 +30159,31 @@
         <v>58</v>
       </c>
       <c r="M439" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N439" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="O439" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P439" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q439" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="R439" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="S439" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T439" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U439" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="440" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30191,7 +30191,7 @@
         <v>19</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>20</v>
@@ -30245,10 +30245,10 @@
         <v>23</v>
       </c>
       <c r="T440" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U440" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="441" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30256,7 +30256,7 @@
         <v>19</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>83</v>
@@ -30310,10 +30310,10 @@
         <v>25</v>
       </c>
       <c r="T441" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U441" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="442" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30321,10 +30321,10 @@
         <v>30</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>23</v>
@@ -30386,7 +30386,7 @@
         <v>19</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>70</v>
@@ -30440,10 +30440,10 @@
         <v>25</v>
       </c>
       <c r="T443" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U443" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="444" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30451,10 +30451,10 @@
         <v>19</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D444" s="1" t="s">
         <v>23</v>
@@ -30505,10 +30505,10 @@
         <v>25</v>
       </c>
       <c r="T444" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U444" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="445" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30516,7 +30516,7 @@
         <v>19</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C445" s="1" t="s">
         <v>53</v>
@@ -30546,7 +30546,7 @@
         <v>34</v>
       </c>
       <c r="L445" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M445" s="1">
         <v>108</v>
@@ -30570,10 +30570,10 @@
         <v>23</v>
       </c>
       <c r="T445" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U445" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="446" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30581,10 +30581,10 @@
         <v>19</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>23</v>
@@ -30646,10 +30646,10 @@
         <v>19</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D447" s="1" t="s">
         <v>23</v>
@@ -30711,7 +30711,7 @@
         <v>30</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C448" s="1" t="s">
         <v>60</v>
@@ -30765,10 +30765,10 @@
         <v>25</v>
       </c>
       <c r="T448" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U448" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="449" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30776,7 +30776,7 @@
         <v>19</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C449" s="1" t="s">
         <v>20</v>
@@ -30830,10 +30830,10 @@
         <v>23</v>
       </c>
       <c r="T449" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U449" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="450" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30841,7 +30841,7 @@
         <v>19</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C450" s="1" t="s">
         <v>52</v>
@@ -30895,10 +30895,10 @@
         <v>25</v>
       </c>
       <c r="T450" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U450" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="451" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30906,7 +30906,7 @@
         <v>19</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C451" s="1" t="s">
         <v>20</v>
@@ -30960,10 +30960,10 @@
         <v>25</v>
       </c>
       <c r="T451" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U451" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="452" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -30971,7 +30971,7 @@
         <v>26</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>20</v>
@@ -31025,10 +31025,10 @@
         <v>25</v>
       </c>
       <c r="T452" s="18" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U452" s="19" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="453" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31036,7 +31036,7 @@
         <v>30</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>20</v>
@@ -31101,10 +31101,10 @@
         <v>19</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>23</v>
@@ -31155,10 +31155,10 @@
         <v>23</v>
       </c>
       <c r="T454" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U454" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="455" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31166,7 +31166,7 @@
         <v>19</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>28</v>
@@ -31231,7 +31231,7 @@
         <v>19</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C456" s="1" t="s">
         <v>20</v>
@@ -31285,10 +31285,10 @@
         <v>23</v>
       </c>
       <c r="T456" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U456" s="12" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="457" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31296,10 +31296,10 @@
         <v>19</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>23</v>
@@ -31361,7 +31361,7 @@
         <v>26</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C458" s="1" t="s">
         <v>49</v>
@@ -31415,10 +31415,10 @@
         <v>23</v>
       </c>
       <c r="T458" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U458" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="459" spans="1:21" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31426,10 +31426,10 @@
         <v>39</v>
       </c>
       <c r="B459" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>23</v>
@@ -31480,10 +31480,10 @@
         <v>25</v>
       </c>
       <c r="T459" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U459" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="460" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31494,7 +31494,7 @@
         <v>42</v>
       </c>
       <c r="C460" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D460" s="7" t="s">
         <v>23</v>
@@ -31610,10 +31610,10 @@
         <v>23</v>
       </c>
       <c r="T461" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U461" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="462" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31675,10 +31675,10 @@
         <v>25</v>
       </c>
       <c r="T462" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U462" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="463" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31805,10 +31805,10 @@
         <v>23</v>
       </c>
       <c r="T464" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U464" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="465" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31819,7 +31819,7 @@
         <v>42</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D465" s="7" t="s">
         <v>23</v>
@@ -31870,10 +31870,10 @@
         <v>25</v>
       </c>
       <c r="T465" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U465" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="466" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31935,10 +31935,10 @@
         <v>25</v>
       </c>
       <c r="T466" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U466" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="467" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -31949,7 +31949,7 @@
         <v>42</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D467" s="7" t="s">
         <v>23</v>
@@ -32000,10 +32000,10 @@
         <v>25</v>
       </c>
       <c r="T467" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U467" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="468" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32065,10 +32065,10 @@
         <v>25</v>
       </c>
       <c r="T468" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U468" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="469" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32195,10 +32195,10 @@
         <v>25</v>
       </c>
       <c r="T470" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U470" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="471" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32260,10 +32260,10 @@
         <v>25</v>
       </c>
       <c r="T471" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U471" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="472" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32325,10 +32325,10 @@
         <v>23</v>
       </c>
       <c r="T472" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U472" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="473" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32390,10 +32390,10 @@
         <v>25</v>
       </c>
       <c r="T473" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U473" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="474" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32455,10 +32455,10 @@
         <v>25</v>
       </c>
       <c r="T474" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U474" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="475" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32520,10 +32520,10 @@
         <v>25</v>
       </c>
       <c r="T475" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U475" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="476" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32585,10 +32585,10 @@
         <v>25</v>
       </c>
       <c r="T476" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U476" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="477" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32664,7 +32664,7 @@
         <v>24</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D478" s="7" t="s">
         <v>25</v>
@@ -32715,10 +32715,10 @@
         <v>25</v>
       </c>
       <c r="T478" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U478" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="479" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32780,10 +32780,10 @@
         <v>25</v>
       </c>
       <c r="T479" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U479" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="480" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32794,7 +32794,7 @@
         <v>24</v>
       </c>
       <c r="C480" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D480" s="7" t="s">
         <v>23</v>
@@ -32845,10 +32845,10 @@
         <v>23</v>
       </c>
       <c r="T480" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U480" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="481" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32910,10 +32910,10 @@
         <v>25</v>
       </c>
       <c r="T481" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U481" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="482" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -32975,10 +32975,10 @@
         <v>25</v>
       </c>
       <c r="T482" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U482" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="483" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33040,10 +33040,10 @@
         <v>25</v>
       </c>
       <c r="T483" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U483" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="484" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33105,10 +33105,10 @@
         <v>23</v>
       </c>
       <c r="T484" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U484" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="485" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33119,7 +33119,7 @@
         <v>42</v>
       </c>
       <c r="C485" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D485" s="7" t="s">
         <v>23</v>
@@ -33170,10 +33170,10 @@
         <v>25</v>
       </c>
       <c r="T485" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U485" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="486" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33184,7 +33184,7 @@
         <v>44</v>
       </c>
       <c r="C486" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D486" s="7" t="s">
         <v>23</v>
@@ -33300,10 +33300,10 @@
         <v>25</v>
       </c>
       <c r="T487" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U487" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="488" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33365,10 +33365,10 @@
         <v>25</v>
       </c>
       <c r="T488" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U488" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="489" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33379,7 +33379,7 @@
         <v>24</v>
       </c>
       <c r="C489" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D489" s="7" t="s">
         <v>25</v>
@@ -33430,10 +33430,10 @@
         <v>25</v>
       </c>
       <c r="T489" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U489" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="490" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33444,7 +33444,7 @@
         <v>42</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D490" s="7" t="s">
         <v>23</v>
@@ -33495,10 +33495,10 @@
         <v>25</v>
       </c>
       <c r="T490" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U490" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="491" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33560,10 +33560,10 @@
         <v>23</v>
       </c>
       <c r="T491" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U491" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="492" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33574,7 +33574,7 @@
         <v>24</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D492" s="7" t="s">
         <v>23</v>
@@ -33625,10 +33625,10 @@
         <v>23</v>
       </c>
       <c r="T492" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U492" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="493" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33690,10 +33690,10 @@
         <v>25</v>
       </c>
       <c r="T493" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U493" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="494" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33755,10 +33755,10 @@
         <v>25</v>
       </c>
       <c r="T494" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U494" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="495" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33820,10 +33820,10 @@
         <v>25</v>
       </c>
       <c r="T495" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U495" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="496" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -33834,7 +33834,7 @@
         <v>42</v>
       </c>
       <c r="C496" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D496" s="7" t="s">
         <v>23</v>
@@ -33885,10 +33885,10 @@
         <v>25</v>
       </c>
       <c r="T496" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U496" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="497" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34015,10 +34015,10 @@
         <v>23</v>
       </c>
       <c r="T498" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U498" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="499" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34145,10 +34145,10 @@
         <v>25</v>
       </c>
       <c r="T500" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U500" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="501" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34224,7 +34224,7 @@
         <v>42</v>
       </c>
       <c r="C502" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D502" s="7" t="s">
         <v>23</v>
@@ -34275,10 +34275,10 @@
         <v>23</v>
       </c>
       <c r="T502" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U502" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="503" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34340,10 +34340,10 @@
         <v>23</v>
       </c>
       <c r="T503" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U503" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="504" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34381,7 +34381,7 @@
         <v>26</v>
       </c>
       <c r="L504" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M504" s="7">
         <v>133</v>
@@ -34405,10 +34405,10 @@
         <v>25</v>
       </c>
       <c r="T504" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U504" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="505" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34470,10 +34470,10 @@
         <v>25</v>
       </c>
       <c r="T505" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U505" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="506" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34484,7 +34484,7 @@
         <v>24</v>
       </c>
       <c r="C506" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D506" s="7" t="s">
         <v>23</v>
@@ -34535,10 +34535,10 @@
         <v>23</v>
       </c>
       <c r="T506" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U506" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="507" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34600,10 +34600,10 @@
         <v>23</v>
       </c>
       <c r="T507" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U507" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="508" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34665,10 +34665,10 @@
         <v>25</v>
       </c>
       <c r="T508" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U508" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="509" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34730,10 +34730,10 @@
         <v>25</v>
       </c>
       <c r="T509" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U509" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="510" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34744,7 +34744,7 @@
         <v>43</v>
       </c>
       <c r="C510" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D510" s="7" t="s">
         <v>23</v>
@@ -34795,10 +34795,10 @@
         <v>25</v>
       </c>
       <c r="T510" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U510" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="511" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34925,10 +34925,10 @@
         <v>25</v>
       </c>
       <c r="T512" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U512" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="513" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -34939,7 +34939,7 @@
         <v>24</v>
       </c>
       <c r="C513" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D513" s="7" t="s">
         <v>23</v>
@@ -34990,10 +34990,10 @@
         <v>25</v>
       </c>
       <c r="T513" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U513" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="514" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35004,7 +35004,7 @@
         <v>42</v>
       </c>
       <c r="C514" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D514" s="7" t="s">
         <v>23</v>
@@ -35055,10 +35055,10 @@
         <v>25</v>
       </c>
       <c r="T514" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U514" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="515" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35069,7 +35069,7 @@
         <v>42</v>
       </c>
       <c r="C515" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D515" s="7" t="s">
         <v>23</v>
@@ -35120,10 +35120,10 @@
         <v>23</v>
       </c>
       <c r="T515" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U515" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="516" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35134,7 +35134,7 @@
         <v>42</v>
       </c>
       <c r="C516" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D516" s="7" t="s">
         <v>23</v>
@@ -35226,7 +35226,7 @@
         <v>34</v>
       </c>
       <c r="L517" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M517" s="7">
         <v>108</v>
@@ -35250,10 +35250,10 @@
         <v>23</v>
       </c>
       <c r="T517" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U517" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="518" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35264,7 +35264,7 @@
         <v>44</v>
       </c>
       <c r="C518" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D518" s="7" t="s">
         <v>23</v>
@@ -35291,7 +35291,7 @@
         <v>20</v>
       </c>
       <c r="L518" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="M518" s="7">
         <v>117</v>
@@ -35380,10 +35380,10 @@
         <v>25</v>
       </c>
       <c r="T519" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U519" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="520" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35459,7 +35459,7 @@
         <v>42</v>
       </c>
       <c r="C521" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D521" s="7" t="s">
         <v>25</v>
@@ -35524,7 +35524,7 @@
         <v>42</v>
       </c>
       <c r="C522" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D522" s="7" t="s">
         <v>23</v>
@@ -35705,10 +35705,10 @@
         <v>23</v>
       </c>
       <c r="T524" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U524" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="525" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35835,10 +35835,10 @@
         <v>25</v>
       </c>
       <c r="T526" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U526" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="527" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35900,10 +35900,10 @@
         <v>23</v>
       </c>
       <c r="T527" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U527" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="528" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -35914,7 +35914,7 @@
         <v>24</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D528" s="7" t="s">
         <v>23</v>
@@ -35965,10 +35965,10 @@
         <v>23</v>
       </c>
       <c r="T528" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U528" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="529" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -36109,7 +36109,7 @@
         <v>42</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D531" s="7" t="s">
         <v>23</v>
@@ -36239,7 +36239,7 @@
         <v>44</v>
       </c>
       <c r="C533" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D533" s="7" t="s">
         <v>23</v>
@@ -36369,7 +36369,7 @@
         <v>42</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D535" s="7" t="s">
         <v>23</v>
@@ -36420,10 +36420,10 @@
         <v>23</v>
       </c>
       <c r="T535" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U535" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="536" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -36526,7 +36526,7 @@
         <v>22</v>
       </c>
       <c r="L537" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M537" s="7">
         <v>123</v>
@@ -36550,10 +36550,10 @@
         <v>25</v>
       </c>
       <c r="T537" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U537" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="538" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -36680,10 +36680,10 @@
         <v>25</v>
       </c>
       <c r="T539" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U539" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="540" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -36745,10 +36745,10 @@
         <v>25</v>
       </c>
       <c r="T540" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="U540" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="541" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -36759,7 +36759,7 @@
         <v>42</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D541" s="7" t="s">
         <v>23</v>
@@ -36810,10 +36810,10 @@
         <v>23</v>
       </c>
       <c r="T541" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U541" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="542" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -36875,10 +36875,10 @@
         <v>23</v>
       </c>
       <c r="T542" s="20" t="s">
-        <v>87</v>
+        <v>180</v>
       </c>
       <c r="U542" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="543" spans="1:21" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -36889,7 +36889,7 @@
         <v>42</v>
       </c>
       <c r="C543" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D543" s="7" t="s">
         <v>23</v>
@@ -37020,48 +37020,11 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37245,11 +37208,48 @@
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -37266,9 +37266,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CC43935-7A09-41F3-8044-8B4D61BF4CD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F78904A8-1815-4533-B947-1DE174DDCAF4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -37293,9 +37293,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F78904A8-1815-4533-B947-1DE174DDCAF4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CC43935-7A09-41F3-8044-8B4D61BF4CD4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
